--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4546" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -505,10 +517,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -552,28 +564,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -598,28 +610,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -707,10 +719,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -754,28 +766,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -800,28 +812,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -880,10 +892,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -927,28 +939,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -973,28 +985,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1313,10 +1325,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1360,28 +1372,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1406,28 +1418,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1890,10 +1902,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1937,28 +1949,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1983,28 +1995,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2265,10 +2277,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2312,28 +2324,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2358,28 +2370,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2496,10 +2508,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2543,28 +2555,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2589,28 +2601,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2698,10 +2710,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2745,28 +2757,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2791,28 +2803,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2871,10 +2883,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2918,28 +2930,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2964,28 +2976,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3102,10 +3114,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3149,28 +3161,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3195,28 +3207,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3275,10 +3287,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3322,28 +3334,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3368,28 +3380,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3448,10 +3460,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3495,28 +3507,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3541,28 +3553,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3679,10 +3691,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3726,28 +3738,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3772,28 +3784,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3928,28 +3940,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3974,28 +3986,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4112,10 +4124,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4159,28 +4171,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4205,28 +4217,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4285,10 +4297,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4332,28 +4344,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4378,28 +4390,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4458,10 +4470,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4505,28 +4517,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4551,28 +4563,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4689,10 +4701,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4736,28 +4748,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4782,28 +4794,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4920,10 +4932,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4967,28 +4979,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5013,28 +5025,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5093,10 +5105,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5140,28 +5152,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5186,28 +5198,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5266,10 +5278,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5313,28 +5325,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5359,28 +5371,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5439,10 +5451,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5486,28 +5498,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5532,28 +5544,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5641,10 +5653,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5688,28 +5700,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5734,28 +5746,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5843,10 +5855,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5890,28 +5902,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5936,28 +5948,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6103,10 +6115,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6150,28 +6162,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6196,28 +6208,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6276,10 +6288,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6323,28 +6335,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6369,28 +6381,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6449,10 +6461,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6496,28 +6508,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6542,28 +6554,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6622,10 +6634,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6669,28 +6681,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6715,28 +6727,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6824,10 +6836,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6871,28 +6883,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6917,28 +6929,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6997,10 +7009,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7044,28 +7056,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7090,28 +7102,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7199,10 +7211,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7246,28 +7258,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7292,28 +7304,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7372,10 +7384,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7419,28 +7431,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7465,28 +7477,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7574,10 +7586,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7621,28 +7633,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7667,28 +7679,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7747,10 +7759,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7794,28 +7806,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7840,28 +7852,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8048,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8083,28 +8095,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8141,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8279,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8314,28 +8326,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8372,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8469,10 +8481,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8516,28 +8528,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8562,28 +8574,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8642,10 +8654,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8689,28 +8701,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8735,28 +8747,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8844,10 +8856,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8891,28 +8903,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8937,28 +8949,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9046,10 +9058,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9093,28 +9105,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9139,28 +9151,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9335,10 +9347,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9382,28 +9394,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9428,28 +9440,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9508,10 +9520,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9555,28 +9567,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9601,28 +9613,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9681,10 +9693,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9728,28 +9740,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9774,28 +9786,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9854,10 +9866,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9901,28 +9913,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9947,28 +9959,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10085,10 +10097,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10132,28 +10144,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10178,28 +10190,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10374,10 +10386,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10421,28 +10433,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10467,28 +10479,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10547,10 +10559,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
